--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H2">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1072.617416037518</v>
+        <v>1129.653928327786</v>
       </c>
       <c r="R2">
-        <v>1072.617416037518</v>
+        <v>10166.88535495007</v>
       </c>
       <c r="S2">
-        <v>0.155821269083114</v>
+        <v>0.1540453351916273</v>
       </c>
       <c r="T2">
-        <v>0.155821269083114</v>
+        <v>0.1540453351916273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H3">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>195.6081183847885</v>
+        <v>207.5500311735396</v>
       </c>
       <c r="R3">
-        <v>195.6081183847885</v>
+        <v>1867.950280561856</v>
       </c>
       <c r="S3">
-        <v>0.02841638108234076</v>
+        <v>0.02830257419499135</v>
       </c>
       <c r="T3">
-        <v>0.02841638108234076</v>
+        <v>0.02830257419499135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H4">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>216.7895045015859</v>
+        <v>230.1786919020489</v>
       </c>
       <c r="R4">
-        <v>216.7895045015859</v>
+        <v>2071.60822711844</v>
       </c>
       <c r="S4">
-        <v>0.03149344324477668</v>
+        <v>0.03138833306277211</v>
       </c>
       <c r="T4">
-        <v>0.03149344324477668</v>
+        <v>0.0313883330627721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H5">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>232.8995140776689</v>
+        <v>246.4400299194521</v>
       </c>
       <c r="R5">
-        <v>232.8995140776689</v>
+        <v>2217.960269275069</v>
       </c>
       <c r="S5">
-        <v>0.03383377643306286</v>
+        <v>0.03360581153360195</v>
       </c>
       <c r="T5">
-        <v>0.03383377643306286</v>
+        <v>0.03360581153360194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H6">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I6">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J6">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>253.0793249329938</v>
+        <v>288.4679698441054</v>
       </c>
       <c r="R6">
-        <v>253.0793249329938</v>
+        <v>2596.211728596948</v>
       </c>
       <c r="S6">
-        <v>0.03676533776175187</v>
+        <v>0.03933695443565027</v>
       </c>
       <c r="T6">
-        <v>0.03676533776175187</v>
+        <v>0.03933695443565027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H7">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>854.0356684958762</v>
+        <v>869.2488934754241</v>
       </c>
       <c r="R7">
-        <v>854.0356684958762</v>
+        <v>7823.240041278816</v>
       </c>
       <c r="S7">
-        <v>0.1240674631210895</v>
+        <v>0.118535184805305</v>
       </c>
       <c r="T7">
-        <v>0.1240674631210895</v>
+        <v>0.1185351848053049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H8">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>155.746408411972</v>
+        <v>159.706110353152</v>
       </c>
       <c r="R8">
-        <v>155.746408411972</v>
+        <v>1437.354993178368</v>
       </c>
       <c r="S8">
-        <v>0.02262559105514431</v>
+        <v>0.02177833466035068</v>
       </c>
       <c r="T8">
-        <v>0.02262559105514431</v>
+        <v>0.02177833466035067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H9">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>172.6113772083537</v>
+        <v>177.11846807248</v>
       </c>
       <c r="R9">
-        <v>172.6113772083537</v>
+        <v>1594.06621265232</v>
       </c>
       <c r="S9">
-        <v>0.02507559867352462</v>
+        <v>0.02415277201154988</v>
       </c>
       <c r="T9">
-        <v>0.02507559867352462</v>
+        <v>0.02415277201154988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H10">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J10">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>185.4384324025645</v>
+        <v>189.631282593456</v>
       </c>
       <c r="R10">
-        <v>185.4384324025645</v>
+        <v>1706.681543341104</v>
       </c>
       <c r="S10">
-        <v>0.02693901053788238</v>
+        <v>0.02585908281943396</v>
       </c>
       <c r="T10">
-        <v>0.02693901053788238</v>
+        <v>0.02585908281943396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H11">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J11">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>201.5059304650283</v>
+        <v>221.971045558416</v>
       </c>
       <c r="R11">
-        <v>201.5059304650283</v>
+        <v>1997.739410025744</v>
       </c>
       <c r="S11">
-        <v>0.02927316799388625</v>
+        <v>0.03026909680781492</v>
       </c>
       <c r="T11">
-        <v>0.02927316799388625</v>
+        <v>0.03026909680781491</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H12">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>1179.64715667984</v>
+        <v>1204.338593486194</v>
       </c>
       <c r="R12">
-        <v>1179.64715667984</v>
+        <v>10839.04734137575</v>
       </c>
       <c r="S12">
-        <v>0.1713696927495258</v>
+        <v>0.1642297146635174</v>
       </c>
       <c r="T12">
-        <v>0.1713696927495258</v>
+        <v>0.1642297146635174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H13">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>215.1266213153099</v>
+        <v>221.2717597428889</v>
       </c>
       <c r="R13">
-        <v>215.1266213153099</v>
+        <v>1991.445837686</v>
       </c>
       <c r="S13">
-        <v>0.03125187289122068</v>
+        <v>0.03017373864975753</v>
       </c>
       <c r="T13">
-        <v>0.03125187289122068</v>
+        <v>0.03017373864975753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H14">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I14">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J14">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>238.4215646321206</v>
+        <v>245.3964662134722</v>
       </c>
       <c r="R14">
-        <v>238.4215646321206</v>
+        <v>2208.56819592125</v>
       </c>
       <c r="S14">
-        <v>0.03463597571909951</v>
+        <v>0.03346350589746837</v>
       </c>
       <c r="T14">
-        <v>0.03463597571909951</v>
+        <v>0.03346350589746837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H15">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I15">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J15">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>256.1390906636451</v>
+        <v>262.732887983875</v>
       </c>
       <c r="R15">
-        <v>256.1390906636451</v>
+        <v>2364.595991854875</v>
       </c>
       <c r="S15">
-        <v>0.03720983602564211</v>
+        <v>0.03582758823779924</v>
       </c>
       <c r="T15">
-        <v>0.03720983602564211</v>
+        <v>0.03582758823779925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H16">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I16">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J16">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N16">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q16">
-        <v>278.332517827789</v>
+        <v>307.5394157059583</v>
       </c>
       <c r="R16">
-        <v>278.332517827789</v>
+        <v>2767.854741353625</v>
       </c>
       <c r="S16">
-        <v>0.0404339194073906</v>
+        <v>0.04193763345486724</v>
       </c>
       <c r="T16">
-        <v>0.0404339194073906</v>
+        <v>0.04193763345486724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H17">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N17">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q17">
-        <v>327.0814219903623</v>
+        <v>407.6107872888348</v>
       </c>
       <c r="R17">
-        <v>327.0814219903623</v>
+        <v>3668.497085599514</v>
       </c>
       <c r="S17">
-        <v>0.04751576984115007</v>
+        <v>0.05558387288448578</v>
       </c>
       <c r="T17">
-        <v>0.04751576984115007</v>
+        <v>0.05558387288448578</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H18">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I18">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J18">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N18">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q18">
-        <v>59.64827771537683</v>
+        <v>74.88986625638577</v>
       </c>
       <c r="R18">
-        <v>59.64827771537683</v>
+        <v>674.008796307472</v>
       </c>
       <c r="S18">
-        <v>0.008665224145406703</v>
+        <v>0.01021236173364912</v>
       </c>
       <c r="T18">
-        <v>0.008665224145406703</v>
+        <v>0.01021236173364912</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H19">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I19">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J19">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N19">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q19">
-        <v>66.1072795805551</v>
+        <v>83.05492104311445</v>
       </c>
       <c r="R19">
-        <v>66.1072795805551</v>
+        <v>747.49428938803</v>
       </c>
       <c r="S19">
-        <v>0.009603536215110292</v>
+        <v>0.01132578998803629</v>
       </c>
       <c r="T19">
-        <v>0.009603536215110292</v>
+        <v>0.01132578998803629</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H20">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I20">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J20">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N20">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q20">
-        <v>71.01982785884938</v>
+        <v>88.922467399949</v>
       </c>
       <c r="R20">
-        <v>71.01982785884938</v>
+        <v>800.302206599541</v>
       </c>
       <c r="S20">
-        <v>0.0103171918911329</v>
+        <v>0.01212591834825806</v>
       </c>
       <c r="T20">
-        <v>0.0103171918911329</v>
+        <v>0.01212591834825806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H21">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I21">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J21">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N21">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q21">
-        <v>77.17341172889287</v>
+        <v>104.0873256377057</v>
       </c>
       <c r="R21">
-        <v>77.17341172889287</v>
+        <v>936.785930739351</v>
       </c>
       <c r="S21">
-        <v>0.01121113528017631</v>
+        <v>0.01419387527894992</v>
       </c>
       <c r="T21">
-        <v>0.01121113528017631</v>
+        <v>0.01419387527894992</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H22">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I22">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J22">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N22">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q22">
-        <v>312.7037568756166</v>
+        <v>329.6313876193739</v>
       </c>
       <c r="R22">
-        <v>312.7037568756166</v>
+        <v>2966.682488574364</v>
       </c>
       <c r="S22">
-        <v>0.0454270977842409</v>
+        <v>0.04495020671567445</v>
       </c>
       <c r="T22">
-        <v>0.0454270977842409</v>
+        <v>0.04495020671567444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H23">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I23">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J23">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N23">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q23">
-        <v>57.02629155534264</v>
+        <v>60.56279986336357</v>
       </c>
       <c r="R23">
-        <v>57.02629155534264</v>
+        <v>545.0651987702721</v>
       </c>
       <c r="S23">
-        <v>0.008284322991960769</v>
+        <v>0.0082586503451597</v>
       </c>
       <c r="T23">
-        <v>0.008284322991960769</v>
+        <v>0.008258650345159699</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H24">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I24">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J24">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N24">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q24">
-        <v>63.20137217171398</v>
+        <v>67.1658104393089</v>
       </c>
       <c r="R24">
-        <v>63.20137217171398</v>
+        <v>604.4922939537801</v>
       </c>
       <c r="S24">
-        <v>0.009181389256172783</v>
+        <v>0.009159070333917722</v>
       </c>
       <c r="T24">
-        <v>0.009181389256172783</v>
+        <v>0.00915907033391772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H25">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I25">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J25">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N25">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q25">
-        <v>67.8979773567701</v>
+        <v>71.91084542817401</v>
       </c>
       <c r="R25">
-        <v>67.8979773567701</v>
+        <v>647.1976088535661</v>
       </c>
       <c r="S25">
-        <v>0.009863674448801223</v>
+        <v>0.009806127354679596</v>
       </c>
       <c r="T25">
-        <v>0.009863674448801223</v>
+        <v>0.009806127354679594</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H26">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I26">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J26">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N26">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q26">
-        <v>73.78106537412773</v>
+        <v>84.17453770484735</v>
       </c>
       <c r="R26">
-        <v>73.78106537412773</v>
+        <v>757.5708393436261</v>
       </c>
       <c r="S26">
-        <v>0.01071832236639597</v>
+        <v>0.01147846659068228</v>
       </c>
       <c r="T26">
-        <v>0.01071832236639597</v>
+        <v>0.01147846659068227</v>
       </c>
     </row>
   </sheetData>
